--- a/data/case1/15/cost_3.xlsx
+++ b/data/case1/15/cost_3.xlsx
@@ -57,19 +57,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="10.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>160.72123435019051</v>
+        <v>160.72160438563503</v>
       </c>
       <c r="B1" s="0">
-        <v>5.4703128703931236</v>
+        <v>6.187470435797815</v>
       </c>
       <c r="C1" s="0">
-        <v>2.2740052185257666</v>
+        <v>0.98450195694716236</v>
       </c>
     </row>
   </sheetData>
